--- a/biology/Zoologie/Capra/Capra.xlsx
+++ b/biology/Zoologie/Capra/Capra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capra est le genre qui réunit les chèvres et bouquetins, mammifères herbivores et ruminants, appartenant à la famille des bovidés, sous-famille des caprinés ou Caprinae.
 Les chèvres sauvages sont réparties en Europe, en Afrique et en Asie. Les variétés domestiquées (à partir de l'espèce sauvage Capra aegagrus) sont présentes sur tous les continents, sauf l'Antarctique.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des espèces actuelles selon Catalogue of Life                                   (31 mai 2019)[2], ITIS      (31 mai 2019)[3] et Mammal Species of the World (version 3, 2005)  (31 mai 2019)[4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des espèces actuelles selon Catalogue of Life                                   (31 mai 2019), ITIS      (31 mai 2019) et Mammal Species of the World (version 3, 2005)  (31 mai 2019):
 Capra caucasica Güldenstädt &amp; Pallas, 1783 — Chèvre du Caucase
 Capra falconeri  (Wagner, 1839) — Chèvre du Cachemire ou Markhor
 Capra hircus Linnaeus, 1758 — Chèvre sauvage et domestique
@@ -549,7 +565,7 @@
 Capra pyrenaica Schinz, 1838 — Bouquetin ibérique comprenant la sous-espèce disparue du Bouquetin des Pyrénées
 Capra sibirica (Pallas, 1776) — Yanghir
 Capra walie Rüppell, 1835 — Bouquetin d'Abyssinie ou Bouquetin d'Éthiopie
-Listes des espèces actuelles et disparues, selon BioLib                    (31 mai 2019)[1] :
+Listes des espèces actuelles et disparues, selon BioLib                    (31 mai 2019) :
 Capra aegagrus Erxleben, 1777
 Capra alba Moyà Solà, 1987 †
 Capra baetica Arribas &amp; Garrido, 2008 †
